--- a/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/ha/2022-02-19_NGC2346_ha_shifts.xlsx
+++ b/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/ha/2022-02-19_NGC2346_ha_shifts.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -46,11 +46,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -62,6 +63,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,8 +76,8 @@
   <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
-    <col min="2" max="2" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="true"/>
+    <col min="2" max="2" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/ha/2022-02-19_NGC2346_ha_shifts.xlsx
+++ b/Observations/2022-02-19/14in/Targets/NGC2346/Shifts/ha/2022-02-19_NGC2346_ha_shifts.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="122">
     <border>
       <left/>
       <right/>
@@ -47,11 +47,121 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -64,6 +174,116 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,8 +296,8 @@
   <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="true"/>
-    <col min="2" max="2" width="12.42578125" customWidth="true"/>
+    <col min="1" max="1" width="4.85546875" customWidth="true"/>
+    <col min="2" max="2" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -90,122 +310,122 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>7.4094147682189941</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
-        <v>-5.7413530349731445</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>17.594009399414063</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0">
-        <v>-15.602779388427734</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>23.88953971862793</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0">
-        <v>-24.050056457519531</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>27.396451950073242</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0">
-        <v>-35.327018737792969</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>23.078834533691406</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0">
-        <v>-50.730014801025391</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>5.6566085815429688</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>-69.53692626953125</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-32.352252960205078</v>
+        <v>-33</v>
       </c>
       <c r="B8" s="0">
-        <v>-85.976310729980469</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-15.973161697387695</v>
+        <v>-16</v>
       </c>
       <c r="B9" s="0">
-        <v>-107.44810485839844</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-45.999423980712891</v>
+        <v>-48</v>
       </c>
       <c r="B10" s="0">
-        <v>-130.3209228515625</v>
+        <v>-131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-69.751716613769531</v>
+        <v>-71</v>
       </c>
       <c r="B11" s="0">
-        <v>-152.22802734375</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-74.241897583007813</v>
+        <v>-76</v>
       </c>
       <c r="B12" s="0">
-        <v>-184.43717956542969</v>
+        <v>-187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-170.74797058105469</v>
+        <v>-109</v>
       </c>
       <c r="B13" s="0">
-        <v>-204.35877990722656</v>
+        <v>-201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-149.24685668945313</v>
+        <v>-151</v>
       </c>
       <c r="B14" s="0">
-        <v>-222.88258361816406</v>
+        <v>-221</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-193.20143127441406</v>
+        <v>-198</v>
       </c>
       <c r="B15" s="0">
-        <v>-237.84703063964844</v>
+        <v>-237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-317.06362915039063</v>
+        <v>-252</v>
       </c>
       <c r="B16" s="0">
-        <v>-92.0396728515625</v>
+        <v>-254</v>
       </c>
     </row>
   </sheetData>
